--- a/Src/Data/Tables/BuffDefine.xlsx
+++ b/Src/Data/Tables/BuffDefine.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" updateLinks="always"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8615" tabRatio="599"/>
+    <workbookView windowWidth="22188" windowHeight="9060" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Buffs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>BuffID</t>
   </si>
@@ -41,6 +41,9 @@
     <t>目标类型</t>
   </si>
   <si>
+    <t>触发类型</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
@@ -92,13 +95,16 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Trigger</t>
+  </si>
+  <si>
     <t>Effect</t>
   </si>
   <si>
     <t>Duration</t>
   </si>
   <si>
-    <t xml:space="preserve">Interval </t>
+    <t>Interval</t>
   </si>
   <si>
     <t>AD</t>
@@ -107,7 +113,7 @@
     <t>AP</t>
   </si>
   <si>
-    <t>ADFator</t>
+    <t>ADFactor</t>
   </si>
   <si>
     <t>APFator</t>
@@ -122,6 +128,9 @@
     <t>UI/Skill/warrior_buff_xy</t>
   </si>
   <si>
+    <t>SkillHit</t>
+  </si>
+  <si>
     <t>Stun</t>
   </si>
   <si>
@@ -135,6 +144,9 @@
   </si>
   <si>
     <t>Self</t>
+  </si>
+  <si>
+    <t>SkillCast</t>
   </si>
   <si>
     <t>破甲</t>
@@ -180,7 +192,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -370,11 +382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -387,20 +394,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -426,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -616,24 +609,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,35 +882,35 @@
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -946,6 +921,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,7 +998,7 @@
     <cellStyle name="好 2" xfId="59"/>
     <cellStyle name="适中 2" xfId="60"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
     <dxf>
       <font>
         <name val="微软雅黑"/>
@@ -1243,6 +1221,21 @@
       </fill>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <family val="0"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="11"/>
+        <color auto="1"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1253,25 +1246,33 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:O9" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:O9" etc:filterBottomFollowUsedRange="0"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:P9" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:P9" etc:filterBottomFollowUsedRange="0"/>
+  <tableColumns count="16">
     <tableColumn id="8" name="Key" dataDxfId="0"/>
     <tableColumn id="3" name="ID" dataDxfId="1"/>
     <tableColumn id="5" name="Name" dataDxfId="2"/>
     <tableColumn id="98" name="Description" dataDxfId="3"/>
     <tableColumn id="2" name="Icon" dataDxfId="4"/>
     <tableColumn id="6" name="Target" dataDxfId="5"/>
-    <tableColumn id="1" name="Effect" dataDxfId="6"/>
-    <tableColumn id="7" name="CD" dataDxfId="7"/>
-    <tableColumn id="28" name="Duration" dataDxfId="8"/>
-    <tableColumn id="29" name="Interval " dataDxfId="9"/>
-    <tableColumn id="12" name="AD" dataDxfId="10"/>
-    <tableColumn id="13" name="AP" dataDxfId="11"/>
-    <tableColumn id="22" name="ADFator" dataDxfId="12"/>
-    <tableColumn id="21" name="APFator" dataDxfId="13"/>
-    <tableColumn id="4" name="DEFRatio" dataDxfId="14"/>
+    <tableColumn id="1" name="Trigger" dataDxfId="6"/>
+    <tableColumn id="7" name="Effect" dataDxfId="7"/>
+    <tableColumn id="28" name="CD" dataDxfId="8"/>
+    <tableColumn id="29" name="Duration" dataDxfId="9"/>
+    <tableColumn id="12" name="Interval" dataDxfId="10"/>
+    <tableColumn id="13" name="AD" dataDxfId="11"/>
+    <tableColumn id="22" name="AP" dataDxfId="12"/>
+    <tableColumn id="21" name="ADFactor" dataDxfId="13"/>
+    <tableColumn id="4" name="APFator" dataDxfId="14"/>
+    <tableColumn id="9" name="DEFRatio" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1564,10 +1565,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.287037037037" defaultRowHeight="14.4"/>
@@ -1588,7 +1589,7 @@
     <col min="17" max="16384" width="16.287037037037" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.4" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1603,10 +1604,10 @@
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="4"/>
       <c r="I1" s="4" t="s">
         <v>5</v>
       </c>
@@ -1628,99 +1629,108 @@
       <c r="O1" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="P1" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:16">
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:16">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="I3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="N3" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="O3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.2" spans="1:10">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1728,25 +1738,28 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="1">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:15">
+    <row r="5" s="1" customFormat="1" ht="13.2" spans="1:16">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1754,25 +1767,29 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="1">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1">
         <v>3</v>
       </c>
-      <c r="O5" s="1">
+      <c r="K5" s="1"/>
+      <c r="P5" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:15">
+    <row r="6" s="1" customFormat="1" ht="13.2" spans="1:16">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1780,27 +1797,31 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="1">
+        <v>40</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="O6" s="1">
+      <c r="K6" s="1"/>
+      <c r="P6" s="1">
         <v>-0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1808,32 +1829,34 @@
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="1">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="4">
+      <c r="N7" s="1"/>
+      <c r="O7" s="4">
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1841,31 +1864,33 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="1">
-        <v>3</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>0.125</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1873,27 +1898,29 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="1">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="1">
         <v>5</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="N9" s="4">
+      <c r="O9" s="4">
         <v>0.16667</v>
       </c>
     </row>
